--- a/curation/draft/collection/collection_specialization_QRS_ADAS_COG.xlsx
+++ b/curation/draft/collection/collection_specialization_QRS_ADAS_COG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D9F12F-1DCC-B142-B64E-2DC67E8E3F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E49E1A-0E47-4133-90DF-02BA3DE5A98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_ADAS-COG" sheetId="1" r:id="rId1"/>
@@ -880,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -895,7 +895,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,34 +1201,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X51" sqref="X51"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="24.46484375" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="7"/>
     <col min="12" max="12" width="29" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" customWidth="1"/>
-    <col min="16" max="16" width="23.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.46484375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.796875" customWidth="1"/>
+    <col min="16" max="16" width="23.796875" style="3" customWidth="1"/>
     <col min="17" max="17" width="28.33203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="28.1640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="28.1328125" style="3" customWidth="1"/>
     <col min="29" max="29" width="25.33203125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="15.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="18.5" style="3" customWidth="1"/>
-    <col min="33" max="33" width="14.1640625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="15.46484375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="18.46484375" style="3" customWidth="1"/>
+    <col min="33" max="33" width="14.1328125" style="3" customWidth="1"/>
     <col min="34" max="34" width="19.33203125" style="3" customWidth="1"/>
     <col min="35" max="35" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>246</v>
       </c>
@@ -1353,7 +1355,7 @@
       <c r="H2" t="s">
         <v>245</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>360</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1405,7 +1407,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>246</v>
       </c>
@@ -1421,7 +1423,7 @@
       <c r="H3" t="s">
         <v>245</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>360</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1473,7 +1475,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>246</v>
       </c>
@@ -1489,7 +1491,7 @@
       <c r="H4" t="s">
         <v>245</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>360</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1526,7 +1528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>246</v>
       </c>
@@ -1542,7 +1544,7 @@
       <c r="H5" t="s">
         <v>245</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>360</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1588,7 +1590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -1607,7 +1609,7 @@
       <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>360</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -1650,7 +1652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>69</v>
       </c>
@@ -1669,7 +1671,7 @@
       <c r="H7" t="s">
         <v>70</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>360</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1718,7 +1720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>69</v>
       </c>
@@ -1737,7 +1739,7 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>360</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1783,7 +1785,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1802,7 +1804,7 @@
       <c r="H9" t="s">
         <v>81</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>360</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1845,7 +1847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" ht="171" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -1864,7 +1866,7 @@
       <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>360</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -1913,7 +1915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -1932,7 +1934,7 @@
       <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <v>360</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1978,7 +1980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>91</v>
       </c>
@@ -1997,7 +1999,7 @@
       <c r="H12" t="s">
         <v>92</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>360</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -2040,7 +2042,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>91</v>
       </c>
@@ -2059,7 +2061,7 @@
       <c r="H13" t="s">
         <v>92</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>360</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -2108,7 +2110,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>91</v>
       </c>
@@ -2127,7 +2129,7 @@
       <c r="H14" t="s">
         <v>92</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>360</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -2173,7 +2175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>101</v>
       </c>
@@ -2192,7 +2194,7 @@
       <c r="H15" t="s">
         <v>102</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <v>360</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -2235,7 +2237,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>101</v>
       </c>
@@ -2254,7 +2256,7 @@
       <c r="H16" t="s">
         <v>102</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>360</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2300,7 +2302,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>101</v>
       </c>
@@ -2319,7 +2321,7 @@
       <c r="H17" t="s">
         <v>102</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>360</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -2365,7 +2367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>111</v>
       </c>
@@ -2384,7 +2386,7 @@
       <c r="H18" t="s">
         <v>112</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>360</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -2427,7 +2429,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="160" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>111</v>
       </c>
@@ -2446,7 +2448,7 @@
       <c r="H19" t="s">
         <v>112</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <v>360</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -2495,7 +2497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>111</v>
       </c>
@@ -2514,7 +2516,7 @@
       <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>360</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -2560,7 +2562,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>121</v>
       </c>
@@ -2579,7 +2581,7 @@
       <c r="H21" t="s">
         <v>122</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>360</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -2622,7 +2624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" ht="114" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>121</v>
       </c>
@@ -2641,7 +2643,7 @@
       <c r="H22" t="s">
         <v>122</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="7">
         <v>360</v>
       </c>
       <c r="L22" s="3" t="s">
@@ -2690,7 +2692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>121</v>
       </c>
@@ -2709,7 +2711,7 @@
       <c r="H23" t="s">
         <v>122</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="7">
         <v>360</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -2755,7 +2757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>131</v>
       </c>
@@ -2774,7 +2776,7 @@
       <c r="H24" t="s">
         <v>132</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="7">
         <v>360</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -2817,7 +2819,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>131</v>
       </c>
@@ -2836,7 +2838,7 @@
       <c r="H25" t="s">
         <v>132</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="7">
         <v>360</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -2882,7 +2884,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>131</v>
       </c>
@@ -2901,7 +2903,7 @@
       <c r="H26" t="s">
         <v>132</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="7">
         <v>360</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -2947,7 +2949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>143</v>
       </c>
@@ -2966,7 +2968,7 @@
       <c r="H27" t="s">
         <v>144</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="7">
         <v>360</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -3009,7 +3011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>143</v>
       </c>
@@ -3028,7 +3030,7 @@
       <c r="H28" t="s">
         <v>144</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="7">
         <v>360</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -3077,7 +3079,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>143</v>
       </c>
@@ -3096,7 +3098,7 @@
       <c r="H29" t="s">
         <v>144</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="7">
         <v>360</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -3142,7 +3144,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>151</v>
       </c>
@@ -3161,7 +3163,7 @@
       <c r="H30" t="s">
         <v>152</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="7">
         <v>360</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -3204,7 +3206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="144" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>151</v>
       </c>
@@ -3223,7 +3225,7 @@
       <c r="H31" t="s">
         <v>152</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="7">
         <v>360</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -3272,7 +3274,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>151</v>
       </c>
@@ -3291,7 +3293,7 @@
       <c r="H32" t="s">
         <v>152</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="7">
         <v>360</v>
       </c>
       <c r="L32" s="3" t="s">
@@ -3337,7 +3339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>161</v>
       </c>
@@ -3356,7 +3358,7 @@
       <c r="H33" t="s">
         <v>162</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="7">
         <v>360</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -3399,7 +3401,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:34" ht="192" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" ht="185.25" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>161</v>
       </c>
@@ -3418,7 +3420,7 @@
       <c r="H34" t="s">
         <v>162</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="7">
         <v>360</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -3467,7 +3469,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>168</v>
       </c>
@@ -3486,7 +3488,7 @@
       <c r="H35" t="s">
         <v>169</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="7">
         <v>360</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -3529,7 +3531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:34" ht="224" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>168</v>
       </c>
@@ -3548,7 +3550,7 @@
       <c r="H36" t="s">
         <v>169</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="7">
         <v>360</v>
       </c>
       <c r="L36" s="3" t="s">
@@ -3597,7 +3599,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>168</v>
       </c>
@@ -3616,7 +3618,7 @@
       <c r="H37" t="s">
         <v>169</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="7">
         <v>360</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -3662,7 +3664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>176</v>
       </c>
@@ -3681,7 +3683,7 @@
       <c r="H38" t="s">
         <v>177</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="7">
         <v>360</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -3724,7 +3726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="2:34" ht="224" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>176</v>
       </c>
@@ -3743,7 +3745,7 @@
       <c r="H39" t="s">
         <v>177</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="7">
         <v>360</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -3792,7 +3794,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>183</v>
       </c>
@@ -3811,7 +3813,7 @@
       <c r="H40" t="s">
         <v>184</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="7">
         <v>360</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -3854,7 +3856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="2:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:34" ht="256.5" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>183</v>
       </c>
@@ -3873,7 +3875,7 @@
       <c r="H41" t="s">
         <v>184</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="7">
         <v>360</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -3922,7 +3924,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>183</v>
       </c>
@@ -3941,7 +3943,7 @@
       <c r="H42" t="s">
         <v>184</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="7">
         <v>360</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -3987,7 +3989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>193</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="H43" t="s">
         <v>194</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="7">
         <v>360</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -4049,7 +4051,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>193</v>
       </c>
@@ -4068,7 +4070,7 @@
       <c r="H44" t="s">
         <v>194</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="7">
         <v>360</v>
       </c>
       <c r="L44" s="3" t="s">
@@ -4105,7 +4107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>193</v>
       </c>
@@ -4124,7 +4126,7 @@
       <c r="H45" t="s">
         <v>194</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="7">
         <v>360</v>
       </c>
       <c r="L45" s="3" t="s">
@@ -4170,7 +4172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>200</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>200</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>200</v>
       </c>
@@ -4353,7 +4355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>210</v>
       </c>
@@ -4372,7 +4374,7 @@
       <c r="H49" t="s">
         <v>211</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="7">
         <v>360</v>
       </c>
       <c r="L49" s="3" t="s">
@@ -4415,7 +4417,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>210</v>
       </c>
@@ -4434,7 +4436,7 @@
       <c r="H50" t="s">
         <v>211</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="7">
         <v>360</v>
       </c>
       <c r="L50" s="3" t="s">
@@ -4471,7 +4473,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>210</v>
       </c>
@@ -4490,7 +4492,7 @@
       <c r="H51" t="s">
         <v>211</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="7">
         <v>360</v>
       </c>
       <c r="L51" s="3" t="s">
@@ -4533,7 +4535,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="2:34" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>210</v>
       </c>
@@ -4552,7 +4554,7 @@
       <c r="H52" t="s">
         <v>211</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="7">
         <v>360</v>
       </c>
       <c r="L52" s="3" t="s">
